--- a/model/results/mix0_ggpos_h2pos/v_abated.xlsx
+++ b/model/results/mix0_ggpos_h2pos/v_abated.xlsx
@@ -629,7 +629,7 @@
         <v>2022</v>
       </c>
       <c r="B3" t="n">
-        <v>1308076.923076924</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="n">
-        <v>1308076.923076924</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>2024</v>
       </c>
       <c r="B5" t="n">
-        <v>1308076.923076924</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -851,19 +851,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>1308076.923076924</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>192126.6666666667</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1255386.666666667</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -872,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2631238.819337419</v>
+        <v>4534666.666666668</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -925,19 +925,19 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>1308076.923076924</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>192126.6666666667</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1255386.666666667</v>
+        <v>2510773.333333333</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>4534666.666666667</v>
+        <v>4534666.666666668</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -999,13 +999,13 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>1308076.923076924</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>192126.6666666667</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4534666.666666667</v>
+        <v>4534666.666666668</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1073,19 +1073,19 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
-        <v>1308076.923076924</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>192126.6666666667</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3279280</v>
+        <v>3766160</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4534666.666666667</v>
+        <v>4534666.666666668</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>930864</v>
+        <v>930864.0000000002</v>
       </c>
       <c r="M9" t="n">
         <v>1396296</v>
@@ -1147,19 +1147,19 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>1308076.923076924</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>192126.6666666667</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>4534666.666666667</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1168,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4534666.666666667</v>
+        <v>4534666.666666668</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
-        <v>1308076.923076924</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>192126.6666666667</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>4534666.666666667</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4534666.666666667</v>
+        <v>4534666.666666668</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1295,28 +1295,28 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
-        <v>1308076.923076924</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>192126.6666666667</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>4534666.666666667</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G12" t="n">
-        <v>1.993190978823721e-08</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>4534666.666666667</v>
+        <v>4534666.666666668</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>1308076.923076924</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>192126.6666666667</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>4534666.666666667</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2.964871581000286e-08</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1443,22 +1443,22 @@
         <v>2033</v>
       </c>
       <c r="B14" t="n">
-        <v>1308076.923076924</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>192126.6666666667</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>4534666.666666667</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G14" t="n">
-        <v>1.993190978823721e-08</v>
+        <v>2.964871581000286e-08</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1517,22 +1517,22 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>1308076.923076924</v>
+        <v>1341329.615384616</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>192126.6666666601</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>4534666.666666667</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G15" t="n">
-        <v>1.993190978823721e-08</v>
+        <v>2.964871581000286e-08</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1547,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>930864.0000000005</v>
+        <v>930864</v>
       </c>
       <c r="M15" t="n">
-        <v>1396295.999999999</v>
+        <v>1396296</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>1308076.923076924</v>
+        <v>1218741.331802526</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>4534666.666666667</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>864570</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>4534666.666666699</v>
+        <v>4224969.950248818</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>930864.0000000001</v>
+        <v>930864</v>
       </c>
       <c r="M16" t="n">
         <v>1396296</v>
@@ -1665,7 +1665,7 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>1308076.923076924</v>
+        <v>1218741.331802526</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1677,16 +1677,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4534666.666666667</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>864570</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4534666.666666699</v>
+        <v>4224969.950248818</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>930864.0000000015</v>
+        <v>930864</v>
       </c>
       <c r="M17" t="n">
-        <v>1396295.999999998</v>
+        <v>1396296</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>1308076.923076924</v>
+        <v>1218741.331802526</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1751,16 +1751,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4534666.666666667</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>864570</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4534666.666666696</v>
+        <v>4224969.950248818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1769,10 +1769,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>930864.0000000014</v>
+        <v>930864</v>
       </c>
       <c r="M18" t="n">
-        <v>1396295.999999998</v>
+        <v>1396296</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>1308076.923076924</v>
+        <v>1218741.331802526</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -1825,16 +1825,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4534666.666666658</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G19" t="n">
-        <v>1.993190978823721e-08</v>
+        <v>864570</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>4534666.666666693</v>
+        <v>4224969.950248818</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>930864.0000000014</v>
+        <v>930864.0000000055</v>
       </c>
       <c r="M19" t="n">
-        <v>1396295.999999998</v>
+        <v>1396295.999999994</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1887,7 +1887,7 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>1308076.923076924</v>
+        <v>1218741.331802526</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1899,16 +1899,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4534666.666666667</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>864570</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4534666.666666696</v>
+        <v>4224969.950248799</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1917,10 +1917,10 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>930864.0000000013</v>
+        <v>930864.0000000057</v>
       </c>
       <c r="M20" t="n">
-        <v>1396295.999999999</v>
+        <v>1396295.999999994</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>1308076.923076924</v>
+        <v>1218741.331802526</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>4534666.666666658</v>
+        <v>4150413.333333334</v>
       </c>
       <c r="G21" t="n">
-        <v>1.993190978823721e-08</v>
+        <v>864570</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>4534666.666666696</v>
+        <v>4224969.950248781</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1991,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>930864</v>
+        <v>930864.0000000016</v>
       </c>
       <c r="M21" t="n">
-        <v>1396296</v>
+        <v>1396296.000000001</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
